--- a/flows/TBT_fund_flow_data.xlsx
+++ b/flows/TBT_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3980"/>
+  <dimension ref="A1:B3995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40235,6 +40235,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3981">
+      <c r="A3981" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B3981" t="n">
+        <v>-8.617649999999999</v>
+      </c>
+    </row>
+    <row r="3982">
+      <c r="A3982" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3982" t="n">
+        <v>-1.721475</v>
+      </c>
+    </row>
+    <row r="3983">
+      <c r="A3983" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3983" t="n">
+        <v>8.737925000000001</v>
+      </c>
+    </row>
+    <row r="3984">
+      <c r="A3984" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3985">
+      <c r="A3985" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3985" t="n">
+        <v>-10.11762</v>
+      </c>
+    </row>
+    <row r="3986">
+      <c r="A3986" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3987">
+      <c r="A3987" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3988">
+      <c r="A3988" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3989">
+      <c r="A3989" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3989" t="n">
+        <v>-3.40029e-05</v>
+      </c>
+    </row>
+    <row r="3990">
+      <c r="A3990" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3991">
+      <c r="A3991" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3991" t="n">
+        <v>-10.02888</v>
+      </c>
+    </row>
+    <row r="3992">
+      <c r="A3992" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3993">
+      <c r="A3993" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3993" t="n">
+        <v>-1.607385</v>
+      </c>
+    </row>
+    <row r="3994">
+      <c r="A3994" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3994" t="n">
+        <v>3.22244</v>
+      </c>
+    </row>
+    <row r="3995">
+      <c r="A3995" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3995" t="n">
+        <v>1.61698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
